--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -41,94 +41,94 @@
     <t>deaths</t>
   </si>
   <si>
-    <t>2020-06-30</t>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
   </si>
   <si>
     <t>2020-06-29</t>
   </si>
   <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-06-27</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-14</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-11</t>
-  </si>
-  <si>
-    <t>2020-06-10</t>
-  </si>
-  <si>
-    <t>2020-06-09</t>
-  </si>
-  <si>
-    <t>2020-06-08</t>
-  </si>
-  <si>
-    <t>2020-06-07</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>2020-06-05</t>
-  </si>
-  <si>
-    <t>2020-06-04</t>
-  </si>
-  <si>
-    <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>2020-06-01</t>
+    <t>2020-06-30</t>
   </si>
   <si>
     <t>2020-07-01</t>
@@ -2159,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2199</v>
+        <v/>
       </c>
       <c r="C2" t="n">
         <v/>
@@ -2168,10 +2168,10 @@
         <v/>
       </c>
       <c r="E2" t="n">
-        <v>2113</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2084</v>
+        <v/>
       </c>
       <c r="C3" t="n">
         <v/>
@@ -2188,10 +2188,10 @@
         <v/>
       </c>
       <c r="E3" t="n">
-        <v>3628</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>57</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2199,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2889</v>
+        <v/>
       </c>
       <c r="C4" t="n">
         <v/>
@@ -2208,10 +2208,10 @@
         <v/>
       </c>
       <c r="E4" t="n">
-        <v>3306</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>65</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>2948</v>
+        <v/>
       </c>
       <c r="C5" t="n">
         <v/>
@@ -2228,10 +2228,10 @@
         <v/>
       </c>
       <c r="E5" t="n">
-        <v>2210</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2239,7 +2239,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>3460</v>
+        <v/>
       </c>
       <c r="C6" t="n">
         <v/>
@@ -2248,10 +2248,10 @@
         <v/>
       </c>
       <c r="E6" t="n">
-        <v>2326</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>63</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2259,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>3390</v>
+        <v/>
       </c>
       <c r="C7" t="n">
         <v/>
@@ -2268,10 +2268,10 @@
         <v/>
       </c>
       <c r="E7" t="n">
-        <v>3328</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>64</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2279,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>3788</v>
+        <v/>
       </c>
       <c r="C8" t="n">
         <v/>
@@ -2288,10 +2288,10 @@
         <v/>
       </c>
       <c r="E8" t="n">
-        <v>2124</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>64</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2299,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>3947</v>
+        <v/>
       </c>
       <c r="C9" t="n">
         <v/>
@@ -2308,10 +2308,10 @@
         <v/>
       </c>
       <c r="E9" t="n">
-        <v>2711</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>68</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2319,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>2909</v>
+        <v/>
       </c>
       <c r="C10" t="n">
         <v/>
@@ -2328,10 +2328,10 @@
         <v/>
       </c>
       <c r="E10" t="n">
-        <v>3589</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>58</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2339,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>3000</v>
+        <v/>
       </c>
       <c r="C11" t="n">
         <v/>
@@ -2348,10 +2348,10 @@
         <v/>
       </c>
       <c r="E11" t="n">
-        <v>1719</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>63</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2359,7 +2359,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>3630</v>
+        <v/>
       </c>
       <c r="C12" t="n">
         <v/>
@@ -2368,10 +2368,10 @@
         <v/>
       </c>
       <c r="E12" t="n">
-        <v>7725</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>77</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2399,7 +2399,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>2877</v>
+        <v/>
       </c>
       <c r="C14" t="n">
         <v/>
@@ -2408,10 +2408,10 @@
         <v/>
       </c>
       <c r="E14" t="n">
-        <v>3884</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>65</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2499,7 +2499,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v/>
+        <v>2877</v>
       </c>
       <c r="C19" t="n">
         <v/>
@@ -2508,10 +2508,10 @@
         <v/>
       </c>
       <c r="E19" t="n">
-        <v/>
+        <v>3884</v>
       </c>
       <c r="F19" t="n">
-        <v/>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2539,7 +2539,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>3630</v>
       </c>
       <c r="C21" t="n">
         <v/>
@@ -2548,10 +2548,10 @@
         <v/>
       </c>
       <c r="E21" t="n">
-        <v/>
+        <v>7725</v>
       </c>
       <c r="F21" t="n">
-        <v/>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2559,7 +2559,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v/>
+        <v>3000</v>
       </c>
       <c r="C22" t="n">
         <v/>
@@ -2568,10 +2568,10 @@
         <v/>
       </c>
       <c r="E22" t="n">
-        <v/>
+        <v>1719</v>
       </c>
       <c r="F22" t="n">
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2579,7 +2579,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v/>
+        <v>2909</v>
       </c>
       <c r="C23" t="n">
         <v/>
@@ -2588,10 +2588,10 @@
         <v/>
       </c>
       <c r="E23" t="n">
-        <v/>
+        <v>3589</v>
       </c>
       <c r="F23" t="n">
-        <v/>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2599,7 +2599,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>3947</v>
       </c>
       <c r="C24" t="n">
         <v/>
@@ -2608,10 +2608,10 @@
         <v/>
       </c>
       <c r="E24" t="n">
-        <v/>
+        <v>2711</v>
       </c>
       <c r="F24" t="n">
-        <v/>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2619,7 +2619,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v/>
+        <v>3788</v>
       </c>
       <c r="C25" t="n">
         <v/>
@@ -2628,10 +2628,10 @@
         <v/>
       </c>
       <c r="E25" t="n">
-        <v/>
+        <v>2124</v>
       </c>
       <c r="F25" t="n">
-        <v/>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2639,7 +2639,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v/>
+        <v>3390</v>
       </c>
       <c r="C26" t="n">
         <v/>
@@ -2648,10 +2648,10 @@
         <v/>
       </c>
       <c r="E26" t="n">
-        <v/>
+        <v>3328</v>
       </c>
       <c r="F26" t="n">
-        <v/>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2659,7 +2659,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v/>
+        <v>3460</v>
       </c>
       <c r="C27" t="n">
         <v/>
@@ -2668,10 +2668,10 @@
         <v/>
       </c>
       <c r="E27" t="n">
-        <v/>
+        <v>2326</v>
       </c>
       <c r="F27" t="n">
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2679,7 +2679,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v/>
+        <v>2948</v>
       </c>
       <c r="C28" t="n">
         <v/>
@@ -2688,10 +2688,10 @@
         <v/>
       </c>
       <c r="E28" t="n">
-        <v/>
+        <v>2210</v>
       </c>
       <c r="F28" t="n">
-        <v/>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2699,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v/>
+        <v>2889</v>
       </c>
       <c r="C29" t="n">
         <v/>
@@ -2708,10 +2708,10 @@
         <v/>
       </c>
       <c r="E29" t="n">
-        <v/>
+        <v>3306</v>
       </c>
       <c r="F29" t="n">
-        <v/>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2719,7 +2719,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v/>
+        <v>2084</v>
       </c>
       <c r="C30" t="n">
         <v/>
@@ -2728,10 +2728,10 @@
         <v/>
       </c>
       <c r="E30" t="n">
-        <v/>
+        <v>3628</v>
       </c>
       <c r="F30" t="n">
-        <v/>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2739,7 +2739,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v/>
+        <v>2199</v>
       </c>
       <c r="C31" t="n">
         <v/>
@@ -2748,10 +2748,10 @@
         <v/>
       </c>
       <c r="E31" t="n">
-        <v/>
+        <v>2113</v>
       </c>
       <c r="F31" t="n">
-        <v/>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -13252,16 +13252,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>440</v>
+        <v>261</v>
       </c>
       <c r="C2" t="n">
-        <v>432</v>
+        <v>942</v>
       </c>
       <c r="D2" t="n">
-        <v>933</v>
+        <v>1198</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -13269,16 +13269,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>435</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>308</v>
+        <v>833</v>
       </c>
       <c r="D3" t="n">
-        <v>871</v>
+        <v>1175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -13286,16 +13286,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>417</v>
+        <v>280</v>
       </c>
       <c r="C4" t="n">
-        <v>378</v>
+        <v>1082</v>
       </c>
       <c r="D4" t="n">
-        <v>875</v>
+        <v>940</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -13303,16 +13303,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="C5" t="n">
-        <v>570</v>
+        <v>1041</v>
       </c>
       <c r="D5" t="n">
-        <v>1018</v>
+        <v>974</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -13320,16 +13320,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="C6" t="n">
-        <v>1041</v>
+        <v>570</v>
       </c>
       <c r="D6" t="n">
-        <v>974</v>
+        <v>1018</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -13337,16 +13337,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="C7" t="n">
-        <v>1082</v>
+        <v>378</v>
       </c>
       <c r="D7" t="n">
-        <v>940</v>
+        <v>875</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -13354,16 +13354,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>266</v>
+        <v>435</v>
       </c>
       <c r="C8" t="n">
-        <v>833</v>
+        <v>308</v>
       </c>
       <c r="D8" t="n">
-        <v>1175</v>
+        <v>871</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -13371,16 +13371,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>261</v>
+        <v>440</v>
       </c>
       <c r="C9" t="n">
-        <v>942</v>
+        <v>432</v>
       </c>
       <c r="D9" t="n">
-        <v>1198</v>
+        <v>933</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -21395,16 +21395,16 @@
         <v/>
       </c>
       <c r="D2" t="n">
-        <v>58348</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>2742</v>
+        <v/>
       </c>
       <c r="F2" t="n">
         <v/>
       </c>
       <c r="G2" t="n">
-        <v>26270</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -21418,16 +21418,16 @@
         <v/>
       </c>
       <c r="D3" t="n">
-        <v>56235</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>2680</v>
+        <v/>
       </c>
       <c r="F3" t="n">
         <v/>
       </c>
       <c r="G3" t="n">
-        <v>26246</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -21441,16 +21441,16 @@
         <v/>
       </c>
       <c r="D4" t="n">
-        <v>52607</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>2623</v>
+        <v/>
       </c>
       <c r="F4" t="n">
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>27847</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -21464,16 +21464,16 @@
         <v/>
       </c>
       <c r="D5" t="n">
-        <v>49301</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>2558</v>
+        <v/>
       </c>
       <c r="F5" t="n">
         <v/>
       </c>
       <c r="G5" t="n">
-        <v>28329</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -21487,16 +21487,16 @@
         <v/>
       </c>
       <c r="D6" t="n">
-        <v>47091</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>2492</v>
+        <v/>
       </c>
       <c r="F6" t="n">
         <v/>
       </c>
       <c r="G6" t="n">
-        <v>27657</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -21510,16 +21510,16 @@
         <v/>
       </c>
       <c r="D7" t="n">
-        <v>44765</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>2429</v>
+        <v/>
       </c>
       <c r="F7" t="n">
         <v/>
       </c>
       <c r="G7" t="n">
-        <v>26586</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -21533,16 +21533,16 @@
         <v/>
       </c>
       <c r="D8" t="n">
-        <v>41437</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>2365</v>
+        <v/>
       </c>
       <c r="F8" t="n">
         <v/>
       </c>
       <c r="G8" t="n">
-        <v>26588</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -21556,16 +21556,16 @@
         <v/>
       </c>
       <c r="D9" t="n">
-        <v>39313</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>2301</v>
+        <v/>
       </c>
       <c r="F9" t="n">
         <v/>
       </c>
       <c r="G9" t="n">
-        <v>24988</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -21579,16 +21579,16 @@
         <v/>
       </c>
       <c r="D10" t="n">
-        <v>36602</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>2233</v>
+        <v/>
       </c>
       <c r="F10" t="n">
         <v/>
       </c>
       <c r="G10" t="n">
-        <v>23820</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -21602,16 +21602,16 @@
         <v/>
       </c>
       <c r="D11" t="n">
-        <v>33013</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>2175</v>
+        <v/>
       </c>
       <c r="F11" t="n">
         <v/>
       </c>
       <c r="G11" t="n">
-        <v>24558</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -21625,16 +21625,16 @@
         <v/>
       </c>
       <c r="D12" t="n">
-        <v>31294</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>2112</v>
+        <v/>
       </c>
       <c r="F12" t="n">
         <v/>
       </c>
       <c r="G12" t="n">
-        <v>23340</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -21671,16 +21671,16 @@
         <v/>
       </c>
       <c r="D14" t="n">
-        <v>21341</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>1969</v>
+        <v/>
       </c>
       <c r="F14" t="n">
         <v/>
       </c>
       <c r="G14" t="n">
-        <v>26669</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -21786,16 +21786,16 @@
         <v/>
       </c>
       <c r="D19" t="n">
-        <v/>
+        <v>21341</v>
       </c>
       <c r="E19" t="n">
-        <v/>
+        <v>1969</v>
       </c>
       <c r="F19" t="n">
         <v/>
       </c>
       <c r="G19" t="n">
-        <v/>
+        <v>26669</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -21832,16 +21832,16 @@
         <v/>
       </c>
       <c r="D21" t="n">
-        <v/>
+        <v>31294</v>
       </c>
       <c r="E21" t="n">
-        <v/>
+        <v>2112</v>
       </c>
       <c r="F21" t="n">
         <v/>
       </c>
       <c r="G21" t="n">
-        <v/>
+        <v>23340</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -21855,16 +21855,16 @@
         <v/>
       </c>
       <c r="D22" t="n">
-        <v/>
+        <v>33013</v>
       </c>
       <c r="E22" t="n">
-        <v/>
+        <v>2175</v>
       </c>
       <c r="F22" t="n">
         <v/>
       </c>
       <c r="G22" t="n">
-        <v/>
+        <v>24558</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -21878,16 +21878,16 @@
         <v/>
       </c>
       <c r="D23" t="n">
-        <v/>
+        <v>36602</v>
       </c>
       <c r="E23" t="n">
-        <v/>
+        <v>2233</v>
       </c>
       <c r="F23" t="n">
         <v/>
       </c>
       <c r="G23" t="n">
-        <v/>
+        <v>23820</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -21901,16 +21901,16 @@
         <v/>
       </c>
       <c r="D24" t="n">
-        <v/>
+        <v>39313</v>
       </c>
       <c r="E24" t="n">
-        <v/>
+        <v>2301</v>
       </c>
       <c r="F24" t="n">
         <v/>
       </c>
       <c r="G24" t="n">
-        <v/>
+        <v>24988</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -21924,16 +21924,16 @@
         <v/>
       </c>
       <c r="D25" t="n">
-        <v/>
+        <v>41437</v>
       </c>
       <c r="E25" t="n">
-        <v/>
+        <v>2365</v>
       </c>
       <c r="F25" t="n">
         <v/>
       </c>
       <c r="G25" t="n">
-        <v/>
+        <v>26588</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -21947,16 +21947,16 @@
         <v/>
       </c>
       <c r="D26" t="n">
-        <v/>
+        <v>44765</v>
       </c>
       <c r="E26" t="n">
-        <v/>
+        <v>2429</v>
       </c>
       <c r="F26" t="n">
         <v/>
       </c>
       <c r="G26" t="n">
-        <v/>
+        <v>26586</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -21970,16 +21970,16 @@
         <v/>
       </c>
       <c r="D27" t="n">
-        <v/>
+        <v>47091</v>
       </c>
       <c r="E27" t="n">
-        <v/>
+        <v>2492</v>
       </c>
       <c r="F27" t="n">
         <v/>
       </c>
       <c r="G27" t="n">
-        <v/>
+        <v>27657</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -21993,16 +21993,16 @@
         <v/>
       </c>
       <c r="D28" t="n">
-        <v/>
+        <v>49301</v>
       </c>
       <c r="E28" t="n">
-        <v/>
+        <v>2558</v>
       </c>
       <c r="F28" t="n">
         <v/>
       </c>
       <c r="G28" t="n">
-        <v/>
+        <v>28329</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -22016,16 +22016,16 @@
         <v/>
       </c>
       <c r="D29" t="n">
-        <v/>
+        <v>52607</v>
       </c>
       <c r="E29" t="n">
-        <v/>
+        <v>2623</v>
       </c>
       <c r="F29" t="n">
         <v/>
       </c>
       <c r="G29" t="n">
-        <v/>
+        <v>27847</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -22039,16 +22039,16 @@
         <v/>
       </c>
       <c r="D30" t="n">
-        <v/>
+        <v>56235</v>
       </c>
       <c r="E30" t="n">
-        <v/>
+        <v>2680</v>
       </c>
       <c r="F30" t="n">
         <v/>
       </c>
       <c r="G30" t="n">
-        <v/>
+        <v>26246</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -22062,16 +22062,16 @@
         <v/>
       </c>
       <c r="D31" t="n">
-        <v/>
+        <v>58348</v>
       </c>
       <c r="E31" t="n">
-        <v/>
+        <v>2742</v>
       </c>
       <c r="F31" t="n">
         <v/>
       </c>
       <c r="G31" t="n">
-        <v/>
+        <v>26270</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -34159,422 +34159,422 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>13661</v>
+        <v>10919</v>
       </c>
       <c r="C2" t="n">
-        <v>5912</v>
+        <v>5448</v>
       </c>
       <c r="D2" t="n">
-        <v>7749</v>
+        <v>5471</v>
       </c>
       <c r="E2" t="n">
-        <v>7869</v>
+        <v>344</v>
       </c>
       <c r="F2" t="n">
-        <v>1686</v>
+        <v>140</v>
       </c>
       <c r="G2" t="n">
-        <v>6183</v>
+        <v>204</v>
       </c>
       <c r="H2" t="n">
-        <v>544</v>
+        <v>5974</v>
       </c>
       <c r="I2" t="n">
-        <v>233</v>
+        <v>1155</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>4819</v>
       </c>
       <c r="K2" t="n">
-        <v>16240</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>13411</v>
+        <v>12208</v>
       </c>
       <c r="C3" t="n">
-        <v>5977</v>
+        <v>5923</v>
       </c>
       <c r="D3" t="n">
-        <v>7434</v>
+        <v>6285</v>
       </c>
       <c r="E3" t="n">
-        <v>7869</v>
+        <v>5909</v>
       </c>
       <c r="F3" t="n">
-        <v>1615</v>
+        <v>1139</v>
       </c>
       <c r="G3" t="n">
-        <v>6254</v>
+        <v>4770</v>
       </c>
       <c r="H3" t="n">
-        <v>544</v>
+        <v>344</v>
       </c>
       <c r="I3" t="n">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="K3" t="n">
-        <v>16329</v>
+        <v>12611</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>13411</v>
+        <v>12651</v>
       </c>
       <c r="C4" t="n">
-        <v>6014</v>
+        <v>6054</v>
       </c>
       <c r="D4" t="n">
-        <v>7397</v>
+        <v>6597</v>
       </c>
       <c r="E4" t="n">
         <v>5909</v>
       </c>
       <c r="F4" t="n">
-        <v>1558</v>
+        <v>1426</v>
       </c>
       <c r="G4" t="n">
-        <v>4351</v>
+        <v>4883</v>
       </c>
       <c r="H4" t="n">
         <v>344</v>
       </c>
       <c r="I4" t="n">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="J4" t="n">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="K4" t="n">
-        <v>17148</v>
+        <v>12106</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>13411</v>
+        <v>13183</v>
       </c>
       <c r="C5" t="n">
-        <v>6068</v>
+        <v>6213</v>
       </c>
       <c r="D5" t="n">
-        <v>7343</v>
+        <v>6970</v>
       </c>
       <c r="E5" t="n">
         <v>5909</v>
       </c>
       <c r="F5" t="n">
-        <v>1700</v>
+        <v>1579</v>
       </c>
       <c r="G5" t="n">
-        <v>4209</v>
+        <v>4330</v>
       </c>
       <c r="H5" t="n">
         <v>344</v>
       </c>
       <c r="I5" t="n">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="J5" t="n">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="K5" t="n">
-        <v>17381</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>13411</v>
+        <v>13389</v>
       </c>
       <c r="C6" t="n">
-        <v>6221</v>
+        <v>6264</v>
       </c>
       <c r="D6" t="n">
-        <v>7190</v>
+        <v>7125</v>
       </c>
       <c r="E6" t="n">
         <v>5909</v>
       </c>
       <c r="F6" t="n">
-        <v>1504</v>
+        <v>1607</v>
       </c>
       <c r="G6" t="n">
-        <v>4405</v>
+        <v>4302</v>
       </c>
       <c r="H6" t="n">
         <v>344</v>
       </c>
       <c r="I6" t="n">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J6" t="n">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K6" t="n">
-        <v>16249</v>
+        <v>12963</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
         <v>13411</v>
       </c>
       <c r="C7" t="n">
-        <v>6241</v>
+        <v>6203</v>
       </c>
       <c r="D7" t="n">
-        <v>7170</v>
+        <v>7208</v>
       </c>
       <c r="E7" t="n">
         <v>5909</v>
       </c>
       <c r="F7" t="n">
-        <v>1585</v>
+        <v>1547</v>
       </c>
       <c r="G7" t="n">
-        <v>4324</v>
+        <v>4362</v>
       </c>
       <c r="H7" t="n">
         <v>344</v>
       </c>
       <c r="I7" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J7" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K7" t="n">
-        <v>15159</v>
+        <v>14844</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
         <v>13411</v>
       </c>
       <c r="C8" t="n">
-        <v>6203</v>
+        <v>6241</v>
       </c>
       <c r="D8" t="n">
-        <v>7208</v>
+        <v>7170</v>
       </c>
       <c r="E8" t="n">
         <v>5909</v>
       </c>
       <c r="F8" t="n">
-        <v>1547</v>
+        <v>1585</v>
       </c>
       <c r="G8" t="n">
-        <v>4362</v>
+        <v>4324</v>
       </c>
       <c r="H8" t="n">
         <v>344</v>
       </c>
       <c r="I8" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J8" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K8" t="n">
-        <v>14844</v>
+        <v>15159</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>13389</v>
+        <v>13411</v>
       </c>
       <c r="C9" t="n">
-        <v>6264</v>
+        <v>6221</v>
       </c>
       <c r="D9" t="n">
-        <v>7125</v>
+        <v>7190</v>
       </c>
       <c r="E9" t="n">
         <v>5909</v>
       </c>
       <c r="F9" t="n">
-        <v>1607</v>
+        <v>1504</v>
       </c>
       <c r="G9" t="n">
-        <v>4302</v>
+        <v>4405</v>
       </c>
       <c r="H9" t="n">
         <v>344</v>
       </c>
       <c r="I9" t="n">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="J9" t="n">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K9" t="n">
-        <v>12963</v>
+        <v>16249</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>13183</v>
+        <v>13411</v>
       </c>
       <c r="C10" t="n">
-        <v>6213</v>
+        <v>6068</v>
       </c>
       <c r="D10" t="n">
-        <v>6970</v>
+        <v>7343</v>
       </c>
       <c r="E10" t="n">
         <v>5909</v>
       </c>
       <c r="F10" t="n">
-        <v>1579</v>
+        <v>1700</v>
       </c>
       <c r="G10" t="n">
-        <v>4330</v>
+        <v>4209</v>
       </c>
       <c r="H10" t="n">
         <v>344</v>
       </c>
       <c r="I10" t="n">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="J10" t="n">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="K10" t="n">
-        <v>12922</v>
+        <v>17381</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>12651</v>
+        <v>13411</v>
       </c>
       <c r="C11" t="n">
-        <v>6054</v>
+        <v>6014</v>
       </c>
       <c r="D11" t="n">
-        <v>6597</v>
+        <v>7397</v>
       </c>
       <c r="E11" t="n">
         <v>5909</v>
       </c>
       <c r="F11" t="n">
-        <v>1426</v>
+        <v>1558</v>
       </c>
       <c r="G11" t="n">
-        <v>4883</v>
+        <v>4351</v>
       </c>
       <c r="H11" t="n">
         <v>344</v>
       </c>
       <c r="I11" t="n">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="J11" t="n">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="K11" t="n">
-        <v>12106</v>
+        <v>17148</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>12208</v>
+        <v>13411</v>
       </c>
       <c r="C12" t="n">
-        <v>5923</v>
+        <v>5977</v>
       </c>
       <c r="D12" t="n">
-        <v>6285</v>
+        <v>7434</v>
       </c>
       <c r="E12" t="n">
-        <v>5909</v>
+        <v>7869</v>
       </c>
       <c r="F12" t="n">
-        <v>1139</v>
+        <v>1615</v>
       </c>
       <c r="G12" t="n">
-        <v>4770</v>
+        <v>6254</v>
       </c>
       <c r="H12" t="n">
-        <v>344</v>
+        <v>544</v>
       </c>
       <c r="I12" t="n">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="J12" t="n">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="K12" t="n">
-        <v>12611</v>
+        <v>16329</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>10919</v>
+        <v>13661</v>
       </c>
       <c r="C13" t="n">
-        <v>5448</v>
+        <v>5912</v>
       </c>
       <c r="D13" t="n">
-        <v>5471</v>
+        <v>7749</v>
       </c>
       <c r="E13" t="n">
-        <v>344</v>
+        <v>7869</v>
       </c>
       <c r="F13" t="n">
-        <v>140</v>
+        <v>1686</v>
       </c>
       <c r="G13" t="n">
-        <v>204</v>
+        <v>6183</v>
       </c>
       <c r="H13" t="n">
-        <v>5974</v>
+        <v>544</v>
       </c>
       <c r="I13" t="n">
-        <v>1155</v>
+        <v>233</v>
       </c>
       <c r="J13" t="n">
-        <v>4819</v>
+        <v>311</v>
       </c>
       <c r="K13" t="n">
-        <v/>
+        <v>16240</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -52115,36 +52115,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
-        <v>9585</v>
+        <v>9619</v>
       </c>
       <c r="C2" t="n">
-        <v>7594</v>
+        <v>6538</v>
       </c>
       <c r="D2" t="n">
-        <v>531752</v>
+        <v>514573</v>
       </c>
       <c r="E2" t="n">
-        <v>27986</v>
+        <v>27089</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
-        <v>9619</v>
+        <v>9585</v>
       </c>
       <c r="C3" t="n">
-        <v>6538</v>
+        <v>7594</v>
       </c>
       <c r="D3" t="n">
-        <v>514573</v>
+        <v>531752</v>
       </c>
       <c r="E3" t="n">
-        <v>27089</v>
+        <v>27986</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F554"/>
+  <dimension ref="A1:F566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12623,6 +12623,270 @@
       </c>
       <c r="F554" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>41</v>
+      </c>
+      <c r="C555" t="n">
+        <v>59763</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E555" t="n">
+        <v>57</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>52</v>
+      </c>
+      <c r="C556" t="n">
+        <v>57144</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E556" t="n">
+        <v>37</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>56</v>
+      </c>
+      <c r="C557" t="n">
+        <v>56274</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E557" t="n">
+        <v>44</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>30</v>
+      </c>
+      <c r="C558" t="n">
+        <v>46169</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E558" t="n">
+        <v>34</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>45</v>
+      </c>
+      <c r="C559" t="n">
+        <v>48120</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E559" t="n">
+        <v>31</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>57</v>
+      </c>
+      <c r="C560" t="n">
+        <v>58328</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E560" t="n">
+        <v>36</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>85</v>
+      </c>
+      <c r="C561" t="n">
+        <v>56027</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E561" t="n">
+        <v>38</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>69</v>
+      </c>
+      <c r="C562" t="n">
+        <v>57298</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E562" t="n">
+        <v>78</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>86</v>
+      </c>
+      <c r="C563" t="n">
+        <v>66096</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E563" t="n">
+        <v>68</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2021-12-19</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>107</v>
+      </c>
+      <c r="C564" t="n">
+        <v>61905</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E564" t="n">
+        <v>50</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>91</v>
+      </c>
+      <c r="C565" t="n">
+        <v>46193</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E565" t="n">
+        <v>100</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>102</v>
+      </c>
+      <c r="C566" t="n">
+        <v>51544</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E566" t="n">
+        <v>75</v>
+      </c>
+      <c r="F566" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12636,7 +12900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E477"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21712,6 +21976,234 @@
         <v>1437</v>
       </c>
       <c r="E477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>98</v>
+      </c>
+      <c r="C478" t="n">
+        <v>795</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1559</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>109</v>
+      </c>
+      <c r="C479" t="n">
+        <v>743</v>
+      </c>
+      <c r="D479" t="n">
+        <v>1515</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>113</v>
+      </c>
+      <c r="C480" t="n">
+        <v>641</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1498</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>119</v>
+      </c>
+      <c r="C481" t="n">
+        <v>312</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1078</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>125</v>
+      </c>
+      <c r="C482" t="n">
+        <v>673</v>
+      </c>
+      <c r="D482" t="n">
+        <v>1709</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>128</v>
+      </c>
+      <c r="C483" t="n">
+        <v>851</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1614</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>135</v>
+      </c>
+      <c r="C484" t="n">
+        <v>525</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1612</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>145</v>
+      </c>
+      <c r="C485" t="n">
+        <v>660</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>153</v>
+      </c>
+      <c r="C486" t="n">
+        <v>719</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1581</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2021-12-19</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>157</v>
+      </c>
+      <c r="C487" t="n">
+        <v>702</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1528</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>163</v>
+      </c>
+      <c r="C488" t="n">
+        <v>334</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1186</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>173</v>
+      </c>
+      <c r="C489" t="n">
+        <v>801</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1592</v>
+      </c>
+      <c r="E489" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21726,7 +22218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G554"/>
+  <dimension ref="A1:G566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35594,6 +36086,306 @@
       </c>
       <c r="G554" t="n">
         <v>386</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1441610</v>
+      </c>
+      <c r="C555" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1416140</v>
+      </c>
+      <c r="E555" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F555" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G555" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1441662</v>
+      </c>
+      <c r="C556" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D556" t="n">
+        <v>1416177</v>
+      </c>
+      <c r="E556" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F556" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G556" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1441718</v>
+      </c>
+      <c r="C557" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1416221</v>
+      </c>
+      <c r="E557" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G557" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1441748</v>
+      </c>
+      <c r="C558" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1416255</v>
+      </c>
+      <c r="E558" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F558" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G558" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1441793</v>
+      </c>
+      <c r="C559" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1416286</v>
+      </c>
+      <c r="E559" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F559" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G559" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1441850</v>
+      </c>
+      <c r="C560" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1416322</v>
+      </c>
+      <c r="E560" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G560" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1441935</v>
+      </c>
+      <c r="C561" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1416360</v>
+      </c>
+      <c r="E561" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F561" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G561" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1442004</v>
+      </c>
+      <c r="C562" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1416438</v>
+      </c>
+      <c r="E562" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F562" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G562" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1442090</v>
+      </c>
+      <c r="C563" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1416506</v>
+      </c>
+      <c r="E563" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F563" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G563" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2021-12-19</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1442197</v>
+      </c>
+      <c r="C564" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D564" t="n">
+        <v>1416556</v>
+      </c>
+      <c r="E564" t="n">
+        <v>25101</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G564" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1442288</v>
+      </c>
+      <c r="C565" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1416656</v>
+      </c>
+      <c r="E565" t="n">
+        <v>25101</v>
+      </c>
+      <c r="F565" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G565" t="n">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1442390</v>
+      </c>
+      <c r="C566" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1416731</v>
+      </c>
+      <c r="E566" t="n">
+        <v>25102</v>
+      </c>
+      <c r="F566" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G566" t="n">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -35607,7 +36399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K513"/>
+  <dimension ref="A1:K525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54614,6 +55406,450 @@
       </c>
       <c r="K513" t="n">
         <v>165</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>9009</v>
+      </c>
+      <c r="C514" t="n">
+        <v>160</v>
+      </c>
+      <c r="D514" t="n">
+        <v>8849</v>
+      </c>
+      <c r="E514" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0</v>
+      </c>
+      <c r="G514" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H514" t="n">
+        <v>140</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0</v>
+      </c>
+      <c r="J514" t="n">
+        <v>140</v>
+      </c>
+      <c r="K514" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>9019</v>
+      </c>
+      <c r="C515" t="n">
+        <v>152</v>
+      </c>
+      <c r="D515" t="n">
+        <v>8867</v>
+      </c>
+      <c r="E515" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0</v>
+      </c>
+      <c r="G515" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H515" t="n">
+        <v>140</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J515" t="n">
+        <v>140</v>
+      </c>
+      <c r="K515" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>9019</v>
+      </c>
+      <c r="C516" t="n">
+        <v>153</v>
+      </c>
+      <c r="D516" t="n">
+        <v>8866</v>
+      </c>
+      <c r="E516" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0</v>
+      </c>
+      <c r="G516" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H516" t="n">
+        <v>140</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>140</v>
+      </c>
+      <c r="K516" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>8994</v>
+      </c>
+      <c r="C517" t="n">
+        <v>164</v>
+      </c>
+      <c r="D517" t="n">
+        <v>8830</v>
+      </c>
+      <c r="E517" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0</v>
+      </c>
+      <c r="G517" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H517" t="n">
+        <v>140</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
+      <c r="J517" t="n">
+        <v>140</v>
+      </c>
+      <c r="K517" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>8994</v>
+      </c>
+      <c r="C518" t="n">
+        <v>169</v>
+      </c>
+      <c r="D518" t="n">
+        <v>8825</v>
+      </c>
+      <c r="E518" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0</v>
+      </c>
+      <c r="G518" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H518" t="n">
+        <v>140</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0</v>
+      </c>
+      <c r="J518" t="n">
+        <v>140</v>
+      </c>
+      <c r="K518" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>8975</v>
+      </c>
+      <c r="C519" t="n">
+        <v>179</v>
+      </c>
+      <c r="D519" t="n">
+        <v>8796</v>
+      </c>
+      <c r="E519" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0</v>
+      </c>
+      <c r="G519" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H519" t="n">
+        <v>140</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J519" t="n">
+        <v>140</v>
+      </c>
+      <c r="K519" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>8987</v>
+      </c>
+      <c r="C520" t="n">
+        <v>188</v>
+      </c>
+      <c r="D520" t="n">
+        <v>8799</v>
+      </c>
+      <c r="E520" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G520" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H520" t="n">
+        <v>140</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0</v>
+      </c>
+      <c r="J520" t="n">
+        <v>140</v>
+      </c>
+      <c r="K520" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C521" t="n">
+        <v>187</v>
+      </c>
+      <c r="D521" t="n">
+        <v>8808</v>
+      </c>
+      <c r="E521" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0</v>
+      </c>
+      <c r="G521" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H521" t="n">
+        <v>140</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0</v>
+      </c>
+      <c r="J521" t="n">
+        <v>140</v>
+      </c>
+      <c r="K521" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C522" t="n">
+        <v>195</v>
+      </c>
+      <c r="D522" t="n">
+        <v>8800</v>
+      </c>
+      <c r="E522" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0</v>
+      </c>
+      <c r="G522" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H522" t="n">
+        <v>140</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0</v>
+      </c>
+      <c r="J522" t="n">
+        <v>140</v>
+      </c>
+      <c r="K522" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2021-12-19</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>8978</v>
+      </c>
+      <c r="C523" t="n">
+        <v>208</v>
+      </c>
+      <c r="D523" t="n">
+        <v>8770</v>
+      </c>
+      <c r="E523" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H523" t="n">
+        <v>140</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
+      <c r="J523" t="n">
+        <v>140</v>
+      </c>
+      <c r="K523" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>8975</v>
+      </c>
+      <c r="C524" t="n">
+        <v>197</v>
+      </c>
+      <c r="D524" t="n">
+        <v>8778</v>
+      </c>
+      <c r="E524" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0</v>
+      </c>
+      <c r="G524" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H524" t="n">
+        <v>140</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
+      <c r="J524" t="n">
+        <v>140</v>
+      </c>
+      <c r="K524" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C525" t="n">
+        <v>193</v>
+      </c>
+      <c r="D525" t="n">
+        <v>8842</v>
+      </c>
+      <c r="E525" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0</v>
+      </c>
+      <c r="G525" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H525" t="n">
+        <v>140</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
+      <c r="J525" t="n">
+        <v>140</v>
+      </c>
+      <c r="K525" t="n">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -54627,7 +55863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63459,6 +64695,234 @@
       </c>
       <c r="E464" t="n">
         <v>1654568</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>53174</v>
+      </c>
+      <c r="C465" t="n">
+        <v>6589</v>
+      </c>
+      <c r="D465" t="n">
+        <v>31496570</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1657714</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>50257</v>
+      </c>
+      <c r="C466" t="n">
+        <v>6887</v>
+      </c>
+      <c r="D466" t="n">
+        <v>31553714</v>
+      </c>
+      <c r="E466" t="n">
+        <v>1660721</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>51263</v>
+      </c>
+      <c r="C467" t="n">
+        <v>5011</v>
+      </c>
+      <c r="D467" t="n">
+        <v>31609988</v>
+      </c>
+      <c r="E467" t="n">
+        <v>1663683</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>43916</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2253</v>
+      </c>
+      <c r="D468" t="n">
+        <v>31656157</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1666113</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>41734</v>
+      </c>
+      <c r="C469" t="n">
+        <v>6386</v>
+      </c>
+      <c r="D469" t="n">
+        <v>31704277</v>
+      </c>
+      <c r="E469" t="n">
+        <v>1668646</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>52415</v>
+      </c>
+      <c r="C470" t="n">
+        <v>5913</v>
+      </c>
+      <c r="D470" t="n">
+        <v>31762605</v>
+      </c>
+      <c r="E470" t="n">
+        <v>1671716</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>50879</v>
+      </c>
+      <c r="C471" t="n">
+        <v>5148</v>
+      </c>
+      <c r="D471" t="n">
+        <v>31818632</v>
+      </c>
+      <c r="E471" t="n">
+        <v>1674664</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>51813</v>
+      </c>
+      <c r="C472" t="n">
+        <v>5485</v>
+      </c>
+      <c r="D472" t="n">
+        <v>31875930</v>
+      </c>
+      <c r="E472" t="n">
+        <v>1677680</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>59901</v>
+      </c>
+      <c r="C473" t="n">
+        <v>6195</v>
+      </c>
+      <c r="D473" t="n">
+        <v>31942026</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1681159</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2021-12-19</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>57435</v>
+      </c>
+      <c r="C474" t="n">
+        <v>4470</v>
+      </c>
+      <c r="D474" t="n">
+        <v>32003931</v>
+      </c>
+      <c r="E474" t="n">
+        <v>1684417</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>43917</v>
+      </c>
+      <c r="C475" t="n">
+        <v>2276</v>
+      </c>
+      <c r="D475" t="n">
+        <v>32050124</v>
+      </c>
+      <c r="E475" t="n">
+        <v>1686848</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C476" t="n">
+        <v>6115</v>
+      </c>
+      <c r="D476" t="n">
+        <v>32101668</v>
+      </c>
+      <c r="E476" t="n">
+        <v>1689561</v>
       </c>
     </row>
   </sheetData>
@@ -63472,7 +64936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69240,6 +70704,306 @@
       </c>
       <c r="G230" t="n">
         <v>9465998</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>122300</v>
+      </c>
+      <c r="C231" t="n">
+        <v>48351</v>
+      </c>
+      <c r="D231" t="n">
+        <v>73949</v>
+      </c>
+      <c r="E231" t="n">
+        <v>23858032</v>
+      </c>
+      <c r="F231" t="n">
+        <v>14318085</v>
+      </c>
+      <c r="G231" t="n">
+        <v>9539947</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>102660</v>
+      </c>
+      <c r="C232" t="n">
+        <v>39997</v>
+      </c>
+      <c r="D232" t="n">
+        <v>62663</v>
+      </c>
+      <c r="E232" t="n">
+        <v>23960692</v>
+      </c>
+      <c r="F232" t="n">
+        <v>14358082</v>
+      </c>
+      <c r="G232" t="n">
+        <v>9602610</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>139453</v>
+      </c>
+      <c r="C233" t="n">
+        <v>49805</v>
+      </c>
+      <c r="D233" t="n">
+        <v>89648</v>
+      </c>
+      <c r="E233" t="n">
+        <v>24100145</v>
+      </c>
+      <c r="F233" t="n">
+        <v>14407887</v>
+      </c>
+      <c r="G233" t="n">
+        <v>9692258</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>36072</v>
+      </c>
+      <c r="C234" t="n">
+        <v>15012</v>
+      </c>
+      <c r="D234" t="n">
+        <v>21060</v>
+      </c>
+      <c r="E234" t="n">
+        <v>24136217</v>
+      </c>
+      <c r="F234" t="n">
+        <v>14422899</v>
+      </c>
+      <c r="G234" t="n">
+        <v>9713318</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>135262</v>
+      </c>
+      <c r="C235" t="n">
+        <v>49444</v>
+      </c>
+      <c r="D235" t="n">
+        <v>85818</v>
+      </c>
+      <c r="E235" t="n">
+        <v>24271479</v>
+      </c>
+      <c r="F235" t="n">
+        <v>14472343</v>
+      </c>
+      <c r="G235" t="n">
+        <v>9799136</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>123434</v>
+      </c>
+      <c r="C236" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D236" t="n">
+        <v>78427</v>
+      </c>
+      <c r="E236" t="n">
+        <v>24394913</v>
+      </c>
+      <c r="F236" t="n">
+        <v>14517350</v>
+      </c>
+      <c r="G236" t="n">
+        <v>9877563</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>106902</v>
+      </c>
+      <c r="C237" t="n">
+        <v>38240</v>
+      </c>
+      <c r="D237" t="n">
+        <v>68662</v>
+      </c>
+      <c r="E237" t="n">
+        <v>24501815</v>
+      </c>
+      <c r="F237" t="n">
+        <v>14555590</v>
+      </c>
+      <c r="G237" t="n">
+        <v>9946225</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>109221</v>
+      </c>
+      <c r="C238" t="n">
+        <v>37245</v>
+      </c>
+      <c r="D238" t="n">
+        <v>71976</v>
+      </c>
+      <c r="E238" t="n">
+        <v>24611036</v>
+      </c>
+      <c r="F238" t="n">
+        <v>14592835</v>
+      </c>
+      <c r="G238" t="n">
+        <v>10018201</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>95460</v>
+      </c>
+      <c r="C239" t="n">
+        <v>31803</v>
+      </c>
+      <c r="D239" t="n">
+        <v>63657</v>
+      </c>
+      <c r="E239" t="n">
+        <v>24706496</v>
+      </c>
+      <c r="F239" t="n">
+        <v>14624638</v>
+      </c>
+      <c r="G239" t="n">
+        <v>10081858</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2021-12-19</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>123719</v>
+      </c>
+      <c r="C240" t="n">
+        <v>38970</v>
+      </c>
+      <c r="D240" t="n">
+        <v>84749</v>
+      </c>
+      <c r="E240" t="n">
+        <v>24830215</v>
+      </c>
+      <c r="F240" t="n">
+        <v>14663608</v>
+      </c>
+      <c r="G240" t="n">
+        <v>10166607</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>30080</v>
+      </c>
+      <c r="C241" t="n">
+        <v>11149</v>
+      </c>
+      <c r="D241" t="n">
+        <v>18931</v>
+      </c>
+      <c r="E241" t="n">
+        <v>24860295</v>
+      </c>
+      <c r="F241" t="n">
+        <v>14674757</v>
+      </c>
+      <c r="G241" t="n">
+        <v>10185538</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>131180</v>
+      </c>
+      <c r="C242" t="n">
+        <v>41123</v>
+      </c>
+      <c r="D242" t="n">
+        <v>90057</v>
+      </c>
+      <c r="E242" t="n">
+        <v>24991475</v>
+      </c>
+      <c r="F242" t="n">
+        <v>14715880</v>
+      </c>
+      <c r="G242" t="n">
+        <v>10275595</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F566"/>
+  <dimension ref="A1:F571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12886,6 +12886,116 @@
         <v>75</v>
       </c>
       <c r="F566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>125</v>
+      </c>
+      <c r="C567" t="n">
+        <v>63313</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E567" t="n">
+        <v>58</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>118</v>
+      </c>
+      <c r="C568" t="n">
+        <v>61322</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E568" t="n">
+        <v>57</v>
+      </c>
+      <c r="F568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>180</v>
+      </c>
+      <c r="C569" t="n">
+        <v>62697</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E569" t="n">
+        <v>82</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>249</v>
+      </c>
+      <c r="C570" t="n">
+        <v>57295</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E570" t="n">
+        <v>96</v>
+      </c>
+      <c r="F570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>290</v>
+      </c>
+      <c r="C571" t="n">
+        <v>52947</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E571" t="n">
+        <v>120</v>
+      </c>
+      <c r="F571" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12900,7 +13010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22204,6 +22314,101 @@
         <v>1592</v>
       </c>
       <c r="E489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>184</v>
+      </c>
+      <c r="C490" t="n">
+        <v>895</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>204</v>
+      </c>
+      <c r="C491" t="n">
+        <v>779</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>207</v>
+      </c>
+      <c r="C492" t="n">
+        <v>737</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1682</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>248</v>
+      </c>
+      <c r="C493" t="n">
+        <v>658</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1629</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>279</v>
+      </c>
+      <c r="C494" t="n">
+        <v>425</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1504</v>
+      </c>
+      <c r="E494" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22218,7 +22423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G566"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36386,6 +36591,131 @@
       </c>
       <c r="G566" t="n">
         <v>557</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1442515</v>
+      </c>
+      <c r="C567" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1416789</v>
+      </c>
+      <c r="E567" t="n">
+        <v>25102</v>
+      </c>
+      <c r="F567" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G567" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1442633</v>
+      </c>
+      <c r="C568" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1416846</v>
+      </c>
+      <c r="E568" t="n">
+        <v>25103</v>
+      </c>
+      <c r="F568" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G568" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1442813</v>
+      </c>
+      <c r="C569" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D569" t="n">
+        <v>1416928</v>
+      </c>
+      <c r="E569" t="n">
+        <v>25103</v>
+      </c>
+      <c r="F569" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G569" t="n">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1443062</v>
+      </c>
+      <c r="C570" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1417024</v>
+      </c>
+      <c r="E570" t="n">
+        <v>25104</v>
+      </c>
+      <c r="F570" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G570" t="n">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1443352</v>
+      </c>
+      <c r="C571" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1417144</v>
+      </c>
+      <c r="E571" t="n">
+        <v>25105</v>
+      </c>
+      <c r="F571" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -36399,7 +36729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K525"/>
+  <dimension ref="A1:K530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55850,6 +56180,191 @@
       </c>
       <c r="K525" t="n">
         <v>262</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C526" t="n">
+        <v>210</v>
+      </c>
+      <c r="D526" t="n">
+        <v>8825</v>
+      </c>
+      <c r="E526" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H526" t="n">
+        <v>140</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
+      <c r="J526" t="n">
+        <v>140</v>
+      </c>
+      <c r="K526" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>9034</v>
+      </c>
+      <c r="C527" t="n">
+        <v>230</v>
+      </c>
+      <c r="D527" t="n">
+        <v>8804</v>
+      </c>
+      <c r="E527" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0</v>
+      </c>
+      <c r="G527" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H527" t="n">
+        <v>140</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
+      <c r="J527" t="n">
+        <v>140</v>
+      </c>
+      <c r="K527" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>8961</v>
+      </c>
+      <c r="C528" t="n">
+        <v>227</v>
+      </c>
+      <c r="D528" t="n">
+        <v>8734</v>
+      </c>
+      <c r="E528" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0</v>
+      </c>
+      <c r="G528" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H528" t="n">
+        <v>140</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
+      <c r="J528" t="n">
+        <v>140</v>
+      </c>
+      <c r="K528" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>8961</v>
+      </c>
+      <c r="C529" t="n">
+        <v>221</v>
+      </c>
+      <c r="D529" t="n">
+        <v>8740</v>
+      </c>
+      <c r="E529" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0</v>
+      </c>
+      <c r="G529" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H529" t="n">
+        <v>140</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>140</v>
+      </c>
+      <c r="K529" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>8960</v>
+      </c>
+      <c r="C530" t="n">
+        <v>230</v>
+      </c>
+      <c r="D530" t="n">
+        <v>8730</v>
+      </c>
+      <c r="E530" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0</v>
+      </c>
+      <c r="G530" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H530" t="n">
+        <v>140</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>140</v>
+      </c>
+      <c r="K530" t="n">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -55863,7 +56378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E476"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64923,6 +65438,101 @@
       </c>
       <c r="E476" t="n">
         <v>1689561</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>56511</v>
+      </c>
+      <c r="C477" t="n">
+        <v>6802</v>
+      </c>
+      <c r="D477" t="n">
+        <v>32164981</v>
+      </c>
+      <c r="E477" t="n">
+        <v>1692893</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>56054</v>
+      </c>
+      <c r="C478" t="n">
+        <v>5268</v>
+      </c>
+      <c r="D478" t="n">
+        <v>32226303</v>
+      </c>
+      <c r="E478" t="n">
+        <v>1696121</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>57583</v>
+      </c>
+      <c r="C479" t="n">
+        <v>5114</v>
+      </c>
+      <c r="D479" t="n">
+        <v>32289000</v>
+      </c>
+      <c r="E479" t="n">
+        <v>1699421</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>52444</v>
+      </c>
+      <c r="C480" t="n">
+        <v>4851</v>
+      </c>
+      <c r="D480" t="n">
+        <v>32346295</v>
+      </c>
+      <c r="E480" t="n">
+        <v>1702436</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>50059</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2888</v>
+      </c>
+      <c r="D481" t="n">
+        <v>32399242</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1705223</v>
       </c>
     </row>
   </sheetData>
@@ -64936,7 +65546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71004,6 +71614,131 @@
       </c>
       <c r="G242" t="n">
         <v>10275595</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>117481</v>
+      </c>
+      <c r="C243" t="n">
+        <v>37295</v>
+      </c>
+      <c r="D243" t="n">
+        <v>80186</v>
+      </c>
+      <c r="E243" t="n">
+        <v>25108956</v>
+      </c>
+      <c r="F243" t="n">
+        <v>14753175</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10355781</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>102576</v>
+      </c>
+      <c r="C244" t="n">
+        <v>32087</v>
+      </c>
+      <c r="D244" t="n">
+        <v>70489</v>
+      </c>
+      <c r="E244" t="n">
+        <v>25211532</v>
+      </c>
+      <c r="F244" t="n">
+        <v>14785262</v>
+      </c>
+      <c r="G244" t="n">
+        <v>10426270</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>122740</v>
+      </c>
+      <c r="C245" t="n">
+        <v>40949</v>
+      </c>
+      <c r="D245" t="n">
+        <v>81791</v>
+      </c>
+      <c r="E245" t="n">
+        <v>25334272</v>
+      </c>
+      <c r="F245" t="n">
+        <v>14826211</v>
+      </c>
+      <c r="G245" t="n">
+        <v>10508061</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>114311</v>
+      </c>
+      <c r="C246" t="n">
+        <v>39233</v>
+      </c>
+      <c r="D246" t="n">
+        <v>75078</v>
+      </c>
+      <c r="E246" t="n">
+        <v>25448583</v>
+      </c>
+      <c r="F246" t="n">
+        <v>14865444</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10583139</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>109032</v>
+      </c>
+      <c r="C247" t="n">
+        <v>37964</v>
+      </c>
+      <c r="D247" t="n">
+        <v>71068</v>
+      </c>
+      <c r="E247" t="n">
+        <v>25557615</v>
+      </c>
+      <c r="F247" t="n">
+        <v>14903408</v>
+      </c>
+      <c r="G247" t="n">
+        <v>10654207</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F571"/>
+  <dimension ref="A1:F573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12997,6 +12997,50 @@
       </c>
       <c r="F571" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>331</v>
+      </c>
+      <c r="C572" t="n">
+        <v>48589</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E572" t="n">
+        <v>144</v>
+      </c>
+      <c r="F572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v/>
+      </c>
+      <c r="C573" t="n">
+        <v/>
+      </c>
+      <c r="D573" t="n">
+        <v/>
+      </c>
+      <c r="E573" t="n">
+        <v/>
+      </c>
+      <c r="F573" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -13010,7 +13054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22409,6 +22453,44 @@
         <v>1504</v>
       </c>
       <c r="E494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>310</v>
+      </c>
+      <c r="C495" t="n">
+        <v>344</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>397</v>
+      </c>
+      <c r="C496" t="n">
+        <v>856</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1744</v>
+      </c>
+      <c r="E496" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22423,7 +22505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G571"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36716,6 +36798,56 @@
       </c>
       <c r="G571" t="n">
         <v>1103</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1443683</v>
+      </c>
+      <c r="C572" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1417288</v>
+      </c>
+      <c r="E572" t="n">
+        <v>25106</v>
+      </c>
+      <c r="F572" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G572" t="n">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v/>
+      </c>
+      <c r="C573" t="n">
+        <v/>
+      </c>
+      <c r="D573" t="n">
+        <v/>
+      </c>
+      <c r="E573" t="n">
+        <v/>
+      </c>
+      <c r="F573" t="n">
+        <v/>
+      </c>
+      <c r="G573" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -36729,7 +36861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K530"/>
+  <dimension ref="A1:K531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56365,6 +56497,43 @@
       </c>
       <c r="K530" t="n">
         <v>583</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>8905</v>
+      </c>
+      <c r="C531" t="n">
+        <v>266</v>
+      </c>
+      <c r="D531" t="n">
+        <v>8639</v>
+      </c>
+      <c r="E531" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0</v>
+      </c>
+      <c r="G531" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H531" t="n">
+        <v>140</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
+      <c r="J531" t="n">
+        <v>140</v>
+      </c>
+      <c r="K531" t="n">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -56378,7 +56547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65533,6 +65702,25 @@
       </c>
       <c r="E481" t="n">
         <v>1705223</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>46549</v>
+      </c>
+      <c r="C482" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D482" t="n">
+        <v>32447831</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1707780</v>
       </c>
     </row>
   </sheetData>
@@ -65546,7 +65734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71739,6 +71927,31 @@
       </c>
       <c r="G247" t="n">
         <v>10654207</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>32116</v>
+      </c>
+      <c r="C248" t="n">
+        <v>12175</v>
+      </c>
+      <c r="D248" t="n">
+        <v>19941</v>
+      </c>
+      <c r="E248" t="n">
+        <v>25589731</v>
+      </c>
+      <c r="F248" t="n">
+        <v>14915583</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10674148</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F576"/>
+  <dimension ref="A1:F577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13108,6 +13108,28 @@
       </c>
       <c r="F576" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>5481</v>
+      </c>
+      <c r="C577" t="n">
+        <v>65487</v>
+      </c>
+      <c r="D577" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E577" t="n">
+        <v>1575</v>
+      </c>
+      <c r="F577" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13121,7 +13143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22539,6 +22561,25 @@
         <v>1250</v>
       </c>
       <c r="E495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>2992</v>
+      </c>
+      <c r="C496" t="n">
+        <v>858</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E496" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22553,7 +22594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G576"/>
+  <dimension ref="A1:G577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36971,6 +37012,31 @@
       </c>
       <c r="G576" t="n">
         <v>10986</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1463701</v>
+      </c>
+      <c r="C577" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1423699</v>
+      </c>
+      <c r="E577" t="n">
+        <v>25113</v>
+      </c>
+      <c r="F577" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G577" t="n">
+        <v>14889</v>
       </c>
     </row>
   </sheetData>
@@ -36984,7 +37050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37131,6 +37197,25 @@
       </c>
       <c r="E7" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>531</v>
+      </c>
+      <c r="C8" t="n">
+        <v>308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>168</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -37144,7 +37229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K528"/>
+  <dimension ref="A1:K529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56496,7 +56581,7 @@
         <v>8965</v>
       </c>
       <c r="C523" t="n">
-        <v/>
+        <v>262</v>
       </c>
       <c r="D523" t="n">
         <v>8703</v>
@@ -56533,7 +56618,7 @@
         <v>8835</v>
       </c>
       <c r="C524" t="n">
-        <v/>
+        <v>189</v>
       </c>
       <c r="D524" t="n">
         <v>8646</v>
@@ -56542,7 +56627,7 @@
         <v>4271</v>
       </c>
       <c r="F524" t="n">
-        <v/>
+        <v>111</v>
       </c>
       <c r="G524" t="n">
         <v>4160</v>
@@ -56570,7 +56655,7 @@
         <v>8943</v>
       </c>
       <c r="C525" t="n">
-        <v/>
+        <v>226</v>
       </c>
       <c r="D525" t="n">
         <v>8717</v>
@@ -56579,7 +56664,7 @@
         <v>4221</v>
       </c>
       <c r="F525" t="n">
-        <v/>
+        <v>146</v>
       </c>
       <c r="G525" t="n">
         <v>4075</v>
@@ -56607,7 +56692,7 @@
         <v>8883</v>
       </c>
       <c r="C526" t="n">
-        <v/>
+        <v>247</v>
       </c>
       <c r="D526" t="n">
         <v>8636</v>
@@ -56644,7 +56729,7 @@
         <v>9024</v>
       </c>
       <c r="C527" t="n">
-        <v/>
+        <v>307</v>
       </c>
       <c r="D527" t="n">
         <v>8717</v>
@@ -56681,7 +56766,7 @@
         <v>9029</v>
       </c>
       <c r="C528" t="n">
-        <v/>
+        <v>420</v>
       </c>
       <c r="D528" t="n">
         <v>8609</v>
@@ -56706,6 +56791,43 @@
       </c>
       <c r="K528" t="n">
         <v>6288</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>9042</v>
+      </c>
+      <c r="C529" t="n">
+        <v>531</v>
+      </c>
+      <c r="D529" t="n">
+        <v>8511</v>
+      </c>
+      <c r="E529" t="n">
+        <v>4547</v>
+      </c>
+      <c r="F529" t="n">
+        <v>324</v>
+      </c>
+      <c r="G529" t="n">
+        <v>4223</v>
+      </c>
+      <c r="H529" t="n">
+        <v>140</v>
+      </c>
+      <c r="I529" t="n">
+        <v>1</v>
+      </c>
+      <c r="J529" t="n">
+        <v>139</v>
+      </c>
+      <c r="K529" t="n">
+        <v>8593</v>
       </c>
     </row>
   </sheetData>
@@ -56719,7 +56841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65855,6 +65977,25 @@
       </c>
       <c r="E480" t="n">
         <v>1733299</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>50461</v>
+      </c>
+      <c r="C481" t="n">
+        <v>15026</v>
+      </c>
+      <c r="D481" t="n">
+        <v>32998171</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1736745</v>
       </c>
     </row>
   </sheetData>
@@ -65868,7 +66009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72161,6 +72302,31 @@
       </c>
       <c r="G251" t="n">
         <v>11205712</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>185595</v>
+      </c>
+      <c r="C252" t="n">
+        <v>92928</v>
+      </c>
+      <c r="D252" t="n">
+        <v>92667</v>
+      </c>
+      <c r="E252" t="n">
+        <v>26657832</v>
+      </c>
+      <c r="F252" t="n">
+        <v>15359453</v>
+      </c>
+      <c r="G252" t="n">
+        <v>11298379</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F577"/>
+  <dimension ref="A1:F578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13130,6 +13130,28 @@
       </c>
       <c r="F577" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>10665</v>
+      </c>
+      <c r="C578" t="n">
+        <v>89742</v>
+      </c>
+      <c r="D578" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E578" t="n">
+        <v>2239</v>
+      </c>
+      <c r="F578" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -13143,7 +13165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22580,6 +22602,25 @@
         <v>1729</v>
       </c>
       <c r="E496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>3908</v>
+      </c>
+      <c r="C497" t="n">
+        <v>938</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E497" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22594,7 +22635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G577"/>
+  <dimension ref="A1:G578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37037,6 +37078,31 @@
       </c>
       <c r="G577" t="n">
         <v>14889</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1474366</v>
+      </c>
+      <c r="C578" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D578" t="n">
+        <v>1425938</v>
+      </c>
+      <c r="E578" t="n">
+        <v>25121</v>
+      </c>
+      <c r="F578" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G578" t="n">
+        <v>23307</v>
       </c>
     </row>
   </sheetData>
@@ -37050,7 +37116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37216,6 +37282,25 @@
       </c>
       <c r="E8" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>551</v>
+      </c>
+      <c r="D9" t="n">
+        <v>140</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -37229,7 +37314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K529"/>
+  <dimension ref="A1:K530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56828,6 +56913,43 @@
       </c>
       <c r="K529" t="n">
         <v>8593</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>10474</v>
+      </c>
+      <c r="C530" t="n">
+        <v>782</v>
+      </c>
+      <c r="D530" t="n">
+        <v>9692</v>
+      </c>
+      <c r="E530" t="n">
+        <v>4257</v>
+      </c>
+      <c r="F530" t="n">
+        <v>377</v>
+      </c>
+      <c r="G530" t="n">
+        <v>3880</v>
+      </c>
+      <c r="H530" t="n">
+        <v>140</v>
+      </c>
+      <c r="I530" t="n">
+        <v/>
+      </c>
+      <c r="J530" t="n">
+        <v>139</v>
+      </c>
+      <c r="K530" t="n">
+        <v>11551</v>
       </c>
     </row>
   </sheetData>
@@ -56841,7 +56963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65996,6 +66118,25 @@
       </c>
       <c r="E481" t="n">
         <v>1736745</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>72145</v>
+      </c>
+      <c r="C482" t="n">
+        <v>17597</v>
+      </c>
+      <c r="D482" t="n">
+        <v>33087913</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1741469</v>
       </c>
     </row>
   </sheetData>
@@ -66009,7 +66150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72327,6 +72468,31 @@
       </c>
       <c r="G252" t="n">
         <v>11298379</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>198213</v>
+      </c>
+      <c r="C253" t="n">
+        <v>108147</v>
+      </c>
+      <c r="D253" t="n">
+        <v>90066</v>
+      </c>
+      <c r="E253" t="n">
+        <v>26856045</v>
+      </c>
+      <c r="F253" t="n">
+        <v>15467600</v>
+      </c>
+      <c r="G253" t="n">
+        <v>11388445</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F578"/>
+  <dimension ref="A1:F580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13152,6 +13152,50 @@
       </c>
       <c r="F578" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>15097</v>
+      </c>
+      <c r="C579" t="n">
+        <v>98434</v>
+      </c>
+      <c r="D579" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="E579" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F579" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>17335</v>
+      </c>
+      <c r="C580" t="n">
+        <v>97762</v>
+      </c>
+      <c r="D580" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="E580" t="n">
+        <v>8951</v>
+      </c>
+      <c r="F580" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -13165,7 +13209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22621,6 +22665,44 @@
         <v>1590</v>
       </c>
       <c r="E497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>5168</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1644</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>6912</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1290</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1654</v>
+      </c>
+      <c r="E499" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22635,7 +22717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G578"/>
+  <dimension ref="A1:G580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37103,6 +37185,56 @@
       </c>
       <c r="G578" t="n">
         <v>23307</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1489463</v>
+      </c>
+      <c r="C579" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1432838</v>
+      </c>
+      <c r="E579" t="n">
+        <v>25127</v>
+      </c>
+      <c r="F579" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G579" t="n">
+        <v>31498</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1506798</v>
+      </c>
+      <c r="C580" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D580" t="n">
+        <v>1441789</v>
+      </c>
+      <c r="E580" t="n">
+        <v>25136</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G580" t="n">
+        <v>39873</v>
       </c>
     </row>
   </sheetData>
@@ -37116,7 +37248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37301,6 +37433,25 @@
       </c>
       <c r="E9" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C10" t="n">
+        <v>769</v>
+      </c>
+      <c r="D10" t="n">
+        <v>211</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -37314,7 +37465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K530"/>
+  <dimension ref="A1:K532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56950,6 +57101,80 @@
       </c>
       <c r="K530" t="n">
         <v>11551</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>12580</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1091</v>
+      </c>
+      <c r="D531" t="n">
+        <v>11489</v>
+      </c>
+      <c r="E531" t="n">
+        <v>4290</v>
+      </c>
+      <c r="F531" t="n">
+        <v>459</v>
+      </c>
+      <c r="G531" t="n">
+        <v>3831</v>
+      </c>
+      <c r="H531" t="n">
+        <v>158</v>
+      </c>
+      <c r="I531" t="n">
+        <v>1</v>
+      </c>
+      <c r="J531" t="n">
+        <v>157</v>
+      </c>
+      <c r="K531" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>13312</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D532" t="n">
+        <v>11922</v>
+      </c>
+      <c r="E532" t="n">
+        <v>4482</v>
+      </c>
+      <c r="F532" t="n">
+        <v>529</v>
+      </c>
+      <c r="G532" t="n">
+        <v>3953</v>
+      </c>
+      <c r="H532" t="n">
+        <v>158</v>
+      </c>
+      <c r="I532" t="n">
+        <v>1</v>
+      </c>
+      <c r="J532" t="n">
+        <v>157</v>
+      </c>
+      <c r="K532" t="n">
+        <v>20695</v>
       </c>
     </row>
   </sheetData>
@@ -56963,7 +57188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66137,6 +66362,44 @@
       </c>
       <c r="E482" t="n">
         <v>1741469</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>80051</v>
+      </c>
+      <c r="C483" t="n">
+        <v>18383</v>
+      </c>
+      <c r="D483" t="n">
+        <v>33186347</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1746649</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>78154</v>
+      </c>
+      <c r="C484" t="n">
+        <v>19608</v>
+      </c>
+      <c r="D484" t="n">
+        <v>33284109</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1751795</v>
       </c>
     </row>
   </sheetData>
@@ -66150,7 +66413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72493,6 +72756,56 @@
       </c>
       <c r="G253" t="n">
         <v>11388445</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>141498</v>
+      </c>
+      <c r="C254" t="n">
+        <v>89945</v>
+      </c>
+      <c r="D254" t="n">
+        <v>51553</v>
+      </c>
+      <c r="E254" t="n">
+        <v>26997543</v>
+      </c>
+      <c r="F254" t="n">
+        <v>15557545</v>
+      </c>
+      <c r="G254" t="n">
+        <v>11439998</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>200280</v>
+      </c>
+      <c r="C255" t="n">
+        <v>128843</v>
+      </c>
+      <c r="D255" t="n">
+        <v>71797</v>
+      </c>
+      <c r="E255" t="n">
+        <v>27197823</v>
+      </c>
+      <c r="F255" t="n">
+        <v>15686028</v>
+      </c>
+      <c r="G255" t="n">
+        <v>11511795</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F580"/>
+  <dimension ref="A1:F590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13196,6 +13196,226 @@
       </c>
       <c r="F580" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>20181</v>
+      </c>
+      <c r="C581" t="n">
+        <v>102965</v>
+      </c>
+      <c r="D581" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E581" t="n">
+        <v>11869</v>
+      </c>
+      <c r="F581" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>22751</v>
+      </c>
+      <c r="C582" t="n">
+        <v>96678</v>
+      </c>
+      <c r="D582" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="E582" t="n">
+        <v>10179</v>
+      </c>
+      <c r="F582" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>19166</v>
+      </c>
+      <c r="C583" t="n">
+        <v>76670</v>
+      </c>
+      <c r="D583" t="n">
+        <v>25</v>
+      </c>
+      <c r="E583" t="n">
+        <v>14076</v>
+      </c>
+      <c r="F583" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>21259</v>
+      </c>
+      <c r="C584" t="n">
+        <v>82884</v>
+      </c>
+      <c r="D584" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="E584" t="n">
+        <v>12161</v>
+      </c>
+      <c r="F584" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>27561</v>
+      </c>
+      <c r="C585" t="n">
+        <v>105102</v>
+      </c>
+      <c r="D585" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="E585" t="n">
+        <v>14957</v>
+      </c>
+      <c r="F585" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>28867</v>
+      </c>
+      <c r="C586" t="n">
+        <v>98832</v>
+      </c>
+      <c r="D586" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="E586" t="n">
+        <v>22121</v>
+      </c>
+      <c r="F586" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>24383</v>
+      </c>
+      <c r="C587" t="n">
+        <v>79578</v>
+      </c>
+      <c r="D587" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="E587" t="n">
+        <v>26236</v>
+      </c>
+      <c r="F587" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>20718</v>
+      </c>
+      <c r="C588" t="n">
+        <v>67624</v>
+      </c>
+      <c r="D588" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="E588" t="n">
+        <v>19554</v>
+      </c>
+      <c r="F588" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>18286</v>
+      </c>
+      <c r="C589" t="n">
+        <v>65621</v>
+      </c>
+      <c r="D589" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="E589" t="n">
+        <v>21846</v>
+      </c>
+      <c r="F589" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>12527</v>
+      </c>
+      <c r="C590" t="n">
+        <v>44762</v>
+      </c>
+      <c r="D590" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="E590" t="n">
+        <v>18340</v>
+      </c>
+      <c r="F590" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -13209,7 +13429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E499"/>
+  <dimension ref="A1:E509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22703,6 +22923,196 @@
         <v>1654</v>
       </c>
       <c r="E499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>9227</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1607</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>11487</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1443</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>14200</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1438</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1095</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>17269</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1762</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1703</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>20878</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1817</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1522</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>23997</v>
+      </c>
+      <c r="C505" t="n">
+        <v>2062</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1408</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>27531</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1420</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>30472</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1811</v>
+      </c>
+      <c r="D507" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>32983</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1585</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1391</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>34958</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1144</v>
+      </c>
+      <c r="E509" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22717,7 +23127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G580"/>
+  <dimension ref="A1:G590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37235,6 +37645,256 @@
       </c>
       <c r="G580" t="n">
         <v>39873</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1526979</v>
+      </c>
+      <c r="C581" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D581" t="n">
+        <v>1453658</v>
+      </c>
+      <c r="E581" t="n">
+        <v>25143</v>
+      </c>
+      <c r="F581" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G581" t="n">
+        <v>48178</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1549730</v>
+      </c>
+      <c r="C582" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1463837</v>
+      </c>
+      <c r="E582" t="n">
+        <v>25160</v>
+      </c>
+      <c r="F582" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G582" t="n">
+        <v>60733</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1568896</v>
+      </c>
+      <c r="C583" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1477913</v>
+      </c>
+      <c r="E583" t="n">
+        <v>25177</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G583" t="n">
+        <v>65806</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1590155</v>
+      </c>
+      <c r="C584" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="D584" t="n">
+        <v>1490074</v>
+      </c>
+      <c r="E584" t="n">
+        <v>25200</v>
+      </c>
+      <c r="F584" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G584" t="n">
+        <v>74881</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1617716</v>
+      </c>
+      <c r="C585" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1505031</v>
+      </c>
+      <c r="E585" t="n">
+        <v>25240</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G585" t="n">
+        <v>87445</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1646583</v>
+      </c>
+      <c r="C586" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1527152</v>
+      </c>
+      <c r="E586" t="n">
+        <v>25271</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G586" t="n">
+        <v>94160</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1670966</v>
+      </c>
+      <c r="C587" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D587" t="n">
+        <v>1553388</v>
+      </c>
+      <c r="E587" t="n">
+        <v>25305</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G587" t="n">
+        <v>92273</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1691684</v>
+      </c>
+      <c r="C588" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1572942</v>
+      </c>
+      <c r="E588" t="n">
+        <v>25335</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G588" t="n">
+        <v>93407</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1709970</v>
+      </c>
+      <c r="C589" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D589" t="n">
+        <v>1594788</v>
+      </c>
+      <c r="E589" t="n">
+        <v>25363</v>
+      </c>
+      <c r="F589" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G589" t="n">
+        <v>89819</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1722497</v>
+      </c>
+      <c r="C590" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D590" t="n">
+        <v>1613128</v>
+      </c>
+      <c r="E590" t="n">
+        <v>25387</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G590" t="n">
+        <v>83982</v>
       </c>
     </row>
   </sheetData>
@@ -37248,7 +37908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37452,6 +38112,196 @@
       </c>
       <c r="E10" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>375</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>440</v>
+      </c>
+      <c r="E12" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>503</v>
+      </c>
+      <c r="E13" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2209</v>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>568</v>
+      </c>
+      <c r="E14" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2363</v>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v>739</v>
+      </c>
+      <c r="E15" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v>768</v>
+      </c>
+      <c r="E16" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2529</v>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v>815</v>
+      </c>
+      <c r="E17" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2620</v>
+      </c>
+      <c r="C18" t="n">
+        <v/>
+      </c>
+      <c r="D18" t="n">
+        <v>887</v>
+      </c>
+      <c r="E18" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2711</v>
+      </c>
+      <c r="C19" t="n">
+        <v/>
+      </c>
+      <c r="D19" t="n">
+        <v>835</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2784</v>
+      </c>
+      <c r="C20" t="n">
+        <v/>
+      </c>
+      <c r="D20" t="n">
+        <v>909</v>
+      </c>
+      <c r="E20" t="n">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -37465,7 +38315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K532"/>
+  <dimension ref="A1:K542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57175,6 +58025,376 @@
       </c>
       <c r="K532" t="n">
         <v>20695</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>14106</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1586</v>
+      </c>
+      <c r="D533" t="n">
+        <v>12520</v>
+      </c>
+      <c r="E533" t="n">
+        <v>4482</v>
+      </c>
+      <c r="F533" t="n">
+        <v>588</v>
+      </c>
+      <c r="G533" t="n">
+        <v>3894</v>
+      </c>
+      <c r="H533" t="n">
+        <v>132</v>
+      </c>
+      <c r="I533" t="n">
+        <v>20</v>
+      </c>
+      <c r="J533" t="n">
+        <v>112</v>
+      </c>
+      <c r="K533" t="n">
+        <v>25909</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>14222</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D534" t="n">
+        <v>12422</v>
+      </c>
+      <c r="E534" t="n">
+        <v>4482</v>
+      </c>
+      <c r="F534" t="n">
+        <v>627</v>
+      </c>
+      <c r="G534" t="n">
+        <v>3855</v>
+      </c>
+      <c r="H534" t="n">
+        <v>158</v>
+      </c>
+      <c r="I534" t="n">
+        <v>23</v>
+      </c>
+      <c r="J534" t="n">
+        <v>135</v>
+      </c>
+      <c r="K534" t="n">
+        <v>35714</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>14355</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D535" t="n">
+        <v>12356</v>
+      </c>
+      <c r="E535" t="n">
+        <v>4582</v>
+      </c>
+      <c r="F535" t="n">
+        <v>666</v>
+      </c>
+      <c r="G535" t="n">
+        <v>3916</v>
+      </c>
+      <c r="H535" t="n">
+        <v>158</v>
+      </c>
+      <c r="I535" t="n">
+        <v>34</v>
+      </c>
+      <c r="J535" t="n">
+        <v>124</v>
+      </c>
+      <c r="K535" t="n">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>14621</v>
+      </c>
+      <c r="C536" t="n">
+        <v>2209</v>
+      </c>
+      <c r="D536" t="n">
+        <v>12412</v>
+      </c>
+      <c r="E536" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F536" t="n">
+        <v>627</v>
+      </c>
+      <c r="G536" t="n">
+        <v>3999</v>
+      </c>
+      <c r="H536" t="n">
+        <v>158</v>
+      </c>
+      <c r="I536" t="n">
+        <v>38</v>
+      </c>
+      <c r="J536" t="n">
+        <v>120</v>
+      </c>
+      <c r="K536" t="n">
+        <v>50796</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>14802</v>
+      </c>
+      <c r="C537" t="n">
+        <v>2363</v>
+      </c>
+      <c r="D537" t="n">
+        <v>12439</v>
+      </c>
+      <c r="E537" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F537" t="n">
+        <v>590</v>
+      </c>
+      <c r="G537" t="n">
+        <v>4036</v>
+      </c>
+      <c r="H537" t="n">
+        <v>158</v>
+      </c>
+      <c r="I537" t="n">
+        <v>39</v>
+      </c>
+      <c r="J537" t="n">
+        <v>119</v>
+      </c>
+      <c r="K537" t="n">
+        <v>56991</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>15433</v>
+      </c>
+      <c r="C538" t="n">
+        <v>2424</v>
+      </c>
+      <c r="D538" t="n">
+        <v>13009</v>
+      </c>
+      <c r="E538" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F538" t="n">
+        <v>559</v>
+      </c>
+      <c r="G538" t="n">
+        <v>4067</v>
+      </c>
+      <c r="H538" t="n">
+        <v>158</v>
+      </c>
+      <c r="I538" t="n">
+        <v>41</v>
+      </c>
+      <c r="J538" t="n">
+        <v>117</v>
+      </c>
+      <c r="K538" t="n">
+        <v>62324</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>15478</v>
+      </c>
+      <c r="C539" t="n">
+        <v>2529</v>
+      </c>
+      <c r="D539" t="n">
+        <v>12949</v>
+      </c>
+      <c r="E539" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F539" t="n">
+        <v>601</v>
+      </c>
+      <c r="G539" t="n">
+        <v>4025</v>
+      </c>
+      <c r="H539" t="n">
+        <v>158</v>
+      </c>
+      <c r="I539" t="n">
+        <v>12</v>
+      </c>
+      <c r="J539" t="n">
+        <v>146</v>
+      </c>
+      <c r="K539" t="n">
+        <v>64831</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>15494</v>
+      </c>
+      <c r="C540" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D540" t="n">
+        <v>12874</v>
+      </c>
+      <c r="E540" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F540" t="n">
+        <v>585</v>
+      </c>
+      <c r="G540" t="n">
+        <v>4041</v>
+      </c>
+      <c r="H540" t="n">
+        <v>158</v>
+      </c>
+      <c r="I540" t="n">
+        <v>32</v>
+      </c>
+      <c r="J540" t="n">
+        <v>126</v>
+      </c>
+      <c r="K540" t="n">
+        <v>69554</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>15499</v>
+      </c>
+      <c r="C541" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D541" t="n">
+        <v>12788</v>
+      </c>
+      <c r="E541" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F541" t="n">
+        <v>502</v>
+      </c>
+      <c r="G541" t="n">
+        <v>4124</v>
+      </c>
+      <c r="H541" t="n">
+        <v>158</v>
+      </c>
+      <c r="I541" t="n">
+        <v>29</v>
+      </c>
+      <c r="J541" t="n">
+        <v>129</v>
+      </c>
+      <c r="K541" t="n">
+        <v>68411</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>15505</v>
+      </c>
+      <c r="C542" t="n">
+        <v>2784</v>
+      </c>
+      <c r="D542" t="n">
+        <v>12721</v>
+      </c>
+      <c r="E542" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F542" t="n">
+        <v>475</v>
+      </c>
+      <c r="G542" t="n">
+        <v>4151</v>
+      </c>
+      <c r="H542" t="n">
+        <v>158</v>
+      </c>
+      <c r="I542" t="n">
+        <v>21</v>
+      </c>
+      <c r="J542" t="n">
+        <v>137</v>
+      </c>
+      <c r="K542" t="n">
+        <v>68275</v>
       </c>
     </row>
   </sheetData>
@@ -57188,7 +58408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66400,6 +67620,196 @@
       </c>
       <c r="E484" t="n">
         <v>1751795</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>79946</v>
+      </c>
+      <c r="C485" t="n">
+        <v>23019</v>
+      </c>
+      <c r="D485" t="n">
+        <v>33387074</v>
+      </c>
+      <c r="E485" t="n">
+        <v>1757214</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>79954</v>
+      </c>
+      <c r="C486" t="n">
+        <v>16724</v>
+      </c>
+      <c r="D486" t="n">
+        <v>33483752</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1762302</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>66327</v>
+      </c>
+      <c r="C487" t="n">
+        <v>10343</v>
+      </c>
+      <c r="D487" t="n">
+        <v>33560422</v>
+      </c>
+      <c r="E487" t="n">
+        <v>1766338</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>61060</v>
+      </c>
+      <c r="C488" t="n">
+        <v>21824</v>
+      </c>
+      <c r="D488" t="n">
+        <v>33643306</v>
+      </c>
+      <c r="E488" t="n">
+        <v>1770700</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>85349</v>
+      </c>
+      <c r="C489" t="n">
+        <v>19753</v>
+      </c>
+      <c r="D489" t="n">
+        <v>33748408</v>
+      </c>
+      <c r="E489" t="n">
+        <v>1776232</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>80417</v>
+      </c>
+      <c r="C490" t="n">
+        <v>18415</v>
+      </c>
+      <c r="D490" t="n">
+        <v>33847240</v>
+      </c>
+      <c r="E490" t="n">
+        <v>1781433</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>64183</v>
+      </c>
+      <c r="C491" t="n">
+        <v>15395</v>
+      </c>
+      <c r="D491" t="n">
+        <v>33926818</v>
+      </c>
+      <c r="E491" t="n">
+        <v>1785622</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>54141</v>
+      </c>
+      <c r="C492" t="n">
+        <v>13483</v>
+      </c>
+      <c r="D492" t="n">
+        <v>33994442</v>
+      </c>
+      <c r="E492" t="n">
+        <v>1789181</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>54141</v>
+      </c>
+      <c r="C493" t="n">
+        <v>11480</v>
+      </c>
+      <c r="D493" t="n">
+        <v>34060063</v>
+      </c>
+      <c r="E493" t="n">
+        <v>1792634</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>39767</v>
+      </c>
+      <c r="C494" t="n">
+        <v>4995</v>
+      </c>
+      <c r="D494" t="n">
+        <v>34104825</v>
+      </c>
+      <c r="E494" t="n">
+        <v>1794990</v>
       </c>
     </row>
   </sheetData>
@@ -66413,7 +67823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72806,6 +74216,256 @@
       </c>
       <c r="G255" t="n">
         <v>11511795</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>179885</v>
+      </c>
+      <c r="C256" t="n">
+        <v>120371</v>
+      </c>
+      <c r="D256" t="n">
+        <v>59514</v>
+      </c>
+      <c r="E256" t="n">
+        <v>27377708</v>
+      </c>
+      <c r="F256" t="n">
+        <v>15806399</v>
+      </c>
+      <c r="G256" t="n">
+        <v>11571309</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>119334</v>
+      </c>
+      <c r="C257" t="n">
+        <v>77807</v>
+      </c>
+      <c r="D257" t="n">
+        <v>41527</v>
+      </c>
+      <c r="E257" t="n">
+        <v>27497042</v>
+      </c>
+      <c r="F257" t="n">
+        <v>15884206</v>
+      </c>
+      <c r="G257" t="n">
+        <v>11612836</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>25030</v>
+      </c>
+      <c r="C258" t="n">
+        <v>16901</v>
+      </c>
+      <c r="D258" t="n">
+        <v>8129</v>
+      </c>
+      <c r="E258" t="n">
+        <v>27522072</v>
+      </c>
+      <c r="F258" t="n">
+        <v>15901107</v>
+      </c>
+      <c r="G258" t="n">
+        <v>11620965</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>197617</v>
+      </c>
+      <c r="C259" t="n">
+        <v>112940</v>
+      </c>
+      <c r="D259" t="n">
+        <v>65819</v>
+      </c>
+      <c r="E259" t="n">
+        <v>16014047</v>
+      </c>
+      <c r="F259" t="n">
+        <v>11686784</v>
+      </c>
+      <c r="G259" t="n">
+        <v>18858</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>188395</v>
+      </c>
+      <c r="C260" t="n">
+        <v>104382</v>
+      </c>
+      <c r="D260" t="n">
+        <v>61434</v>
+      </c>
+      <c r="E260" t="n">
+        <v>16118429</v>
+      </c>
+      <c r="F260" t="n">
+        <v>11748218</v>
+      </c>
+      <c r="G260" t="n">
+        <v>41437</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>163851</v>
+      </c>
+      <c r="C261" t="n">
+        <v>94838</v>
+      </c>
+      <c r="D261" t="n">
+        <v>45322</v>
+      </c>
+      <c r="E261" t="n">
+        <v>16213267</v>
+      </c>
+      <c r="F261" t="n">
+        <v>11793540</v>
+      </c>
+      <c r="G261" t="n">
+        <v>65128</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>167374</v>
+      </c>
+      <c r="C262" t="n">
+        <v>100621</v>
+      </c>
+      <c r="D262" t="n">
+        <v>42464</v>
+      </c>
+      <c r="E262" t="n">
+        <v>16313888</v>
+      </c>
+      <c r="F262" t="n">
+        <v>11836004</v>
+      </c>
+      <c r="G262" t="n">
+        <v>89417</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>129538</v>
+      </c>
+      <c r="C263" t="n">
+        <v>80606</v>
+      </c>
+      <c r="D263" t="n">
+        <v>30531</v>
+      </c>
+      <c r="E263" t="n">
+        <v>16394494</v>
+      </c>
+      <c r="F263" t="n">
+        <v>11866535</v>
+      </c>
+      <c r="G263" t="n">
+        <v>107818</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>165924</v>
+      </c>
+      <c r="C264" t="n">
+        <v>94486</v>
+      </c>
+      <c r="D264" t="n">
+        <v>52747</v>
+      </c>
+      <c r="E264" t="n">
+        <v>16488980</v>
+      </c>
+      <c r="F264" t="n">
+        <v>11919282</v>
+      </c>
+      <c r="G264" t="n">
+        <v>126509</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>23577</v>
+      </c>
+      <c r="C265" t="n">
+        <v>14723</v>
+      </c>
+      <c r="D265" t="n">
+        <v>6978</v>
+      </c>
+      <c r="E265" t="n">
+        <v>16503703</v>
+      </c>
+      <c r="F265" t="n">
+        <v>11926260</v>
+      </c>
+      <c r="G265" t="n">
+        <v>128385</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F590"/>
+  <dimension ref="A1:F592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13416,6 +13416,50 @@
       </c>
       <c r="F590" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>11684</v>
+      </c>
+      <c r="C591" t="n">
+        <v>52002</v>
+      </c>
+      <c r="D591" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="E591" t="n">
+        <v>17516</v>
+      </c>
+      <c r="F591" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>13785</v>
+      </c>
+      <c r="C592" t="n">
+        <v>57776</v>
+      </c>
+      <c r="D592" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="E592" t="n">
+        <v>16580</v>
+      </c>
+      <c r="F592" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -13429,7 +13473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E509"/>
+  <dimension ref="A1:E511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23113,6 +23157,44 @@
         <v>1144</v>
       </c>
       <c r="E509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>37540</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>39489</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1556</v>
+      </c>
+      <c r="D511" t="n">
+        <v>1542</v>
+      </c>
+      <c r="E511" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23127,7 +23209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G590"/>
+  <dimension ref="A1:G592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37895,6 +37977,56 @@
       </c>
       <c r="G590" t="n">
         <v>83982</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1734181</v>
+      </c>
+      <c r="C591" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D591" t="n">
+        <v>1630644</v>
+      </c>
+      <c r="E591" t="n">
+        <v>25425</v>
+      </c>
+      <c r="F591" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G591" t="n">
+        <v>78112</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1747966</v>
+      </c>
+      <c r="C592" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D592" t="n">
+        <v>1647224</v>
+      </c>
+      <c r="E592" t="n">
+        <v>25460</v>
+      </c>
+      <c r="F592" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G592" t="n">
+        <v>75282</v>
       </c>
     </row>
   </sheetData>
@@ -37908,7 +38040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38302,6 +38434,44 @@
       </c>
       <c r="E20" t="n">
         <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2730</v>
+      </c>
+      <c r="C21" t="n">
+        <v/>
+      </c>
+      <c r="D21" t="n">
+        <v>871</v>
+      </c>
+      <c r="E21" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2734</v>
+      </c>
+      <c r="C22" t="n">
+        <v/>
+      </c>
+      <c r="D22" t="n">
+        <v>908</v>
+      </c>
+      <c r="E22" t="n">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -38315,7 +38485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K542"/>
+  <dimension ref="A1:K544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58395,6 +58565,80 @@
       </c>
       <c r="K542" t="n">
         <v>68275</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>15606</v>
+      </c>
+      <c r="C543" t="n">
+        <v>2730</v>
+      </c>
+      <c r="D543" t="n">
+        <v>12876</v>
+      </c>
+      <c r="E543" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F543" t="n">
+        <v>402</v>
+      </c>
+      <c r="G543" t="n">
+        <v>4224</v>
+      </c>
+      <c r="H543" t="n">
+        <v>158</v>
+      </c>
+      <c r="I543" t="n">
+        <v>9</v>
+      </c>
+      <c r="J543" t="n">
+        <v>149</v>
+      </c>
+      <c r="K543" t="n">
+        <v>63432</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>15603</v>
+      </c>
+      <c r="C544" t="n">
+        <v>2734</v>
+      </c>
+      <c r="D544" t="n">
+        <v>12869</v>
+      </c>
+      <c r="E544" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F544" t="n">
+        <v>358</v>
+      </c>
+      <c r="G544" t="n">
+        <v>4268</v>
+      </c>
+      <c r="H544" t="n">
+        <v>222</v>
+      </c>
+      <c r="I544" t="n">
+        <v>14</v>
+      </c>
+      <c r="J544" t="n">
+        <v>208</v>
+      </c>
+      <c r="K544" t="n">
+        <v>58501</v>
       </c>
     </row>
   </sheetData>
@@ -58408,7 +58652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67810,6 +68054,44 @@
       </c>
       <c r="E494" t="n">
         <v>1794990</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>38849</v>
+      </c>
+      <c r="C495" t="n">
+        <v>13153</v>
+      </c>
+      <c r="D495" t="n">
+        <v>34156827</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1797727</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>44737</v>
+      </c>
+      <c r="C496" t="n">
+        <v>13039</v>
+      </c>
+      <c r="D496" t="n">
+        <v>34214603</v>
+      </c>
+      <c r="E496" t="n">
+        <v>1800768</v>
       </c>
     </row>
   </sheetData>
@@ -67823,7 +68105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74466,6 +74748,56 @@
       </c>
       <c r="G265" t="n">
         <v>128385</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>151314</v>
+      </c>
+      <c r="C266" t="n">
+        <v>86860</v>
+      </c>
+      <c r="D266" t="n">
+        <v>45582</v>
+      </c>
+      <c r="E266" t="n">
+        <v>16590563</v>
+      </c>
+      <c r="F266" t="n">
+        <v>11971842</v>
+      </c>
+      <c r="G266" t="n">
+        <v>147257</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>125611</v>
+      </c>
+      <c r="C267" t="n">
+        <v>70314</v>
+      </c>
+      <c r="D267" t="n">
+        <v>39784</v>
+      </c>
+      <c r="E267" t="n">
+        <v>16660877</v>
+      </c>
+      <c r="F267" t="n">
+        <v>12011626</v>
+      </c>
+      <c r="G267" t="n">
+        <v>162770</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/DL.xlsx
+++ b/data/xlsx/DL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F592"/>
+  <dimension ref="A1:F596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13460,6 +13460,94 @@
       </c>
       <c r="F592" t="n">
         <v>35</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>12306</v>
+      </c>
+      <c r="C593" t="n">
+        <v>57290</v>
+      </c>
+      <c r="D593" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="E593" t="n">
+        <v>18815</v>
+      </c>
+      <c r="F593" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>10756</v>
+      </c>
+      <c r="C594" t="n">
+        <v>59629</v>
+      </c>
+      <c r="D594" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="E594" t="n">
+        <v>17494</v>
+      </c>
+      <c r="F594" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>11486</v>
+      </c>
+      <c r="C595" t="n">
+        <v>70226</v>
+      </c>
+      <c r="D595" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="E595" t="n">
+        <v>14802</v>
+      </c>
+      <c r="F595" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>9197</v>
+      </c>
+      <c r="C596" t="n">
+        <v>69022</v>
+      </c>
+      <c r="D596" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="E596" t="n">
+        <v>13510</v>
+      </c>
+      <c r="F596" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -13473,7 +13561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E511"/>
+  <dimension ref="A1:E515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23195,6 +23283,82 @@
         <v>1542</v>
       </c>
       <c r="E511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>40756</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>42239</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1342</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1422</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>43457</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1373</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1538</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>44132</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1441</v>
+      </c>
+      <c r="E515" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23209,7 +23373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G592"/>
+  <dimension ref="A1:G596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38027,6 +38191,106 @@
       </c>
       <c r="G592" t="n">
         <v>75282</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1760272</v>
+      </c>
+      <c r="C593" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D593" t="n">
+        <v>1666039</v>
+      </c>
+      <c r="E593" t="n">
+        <v>25503</v>
+      </c>
+      <c r="F593" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G593" t="n">
+        <v>68730</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1771028</v>
+      </c>
+      <c r="C594" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D594" t="n">
+        <v>1683533</v>
+      </c>
+      <c r="E594" t="n">
+        <v>25541</v>
+      </c>
+      <c r="F594" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G594" t="n">
+        <v>61954</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1782514</v>
+      </c>
+      <c r="C595" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="D595" t="n">
+        <v>1698335</v>
+      </c>
+      <c r="E595" t="n">
+        <v>25586</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G595" t="n">
+        <v>58593</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1791711</v>
+      </c>
+      <c r="C596" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1711845</v>
+      </c>
+      <c r="E596" t="n">
+        <v>25620</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G596" t="n">
+        <v>54246</v>
       </c>
     </row>
   </sheetData>
@@ -38040,7 +38304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38472,6 +38736,82 @@
       </c>
       <c r="E22" t="n">
         <v>147</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2698</v>
+      </c>
+      <c r="C23" t="n">
+        <v/>
+      </c>
+      <c r="D23" t="n">
+        <v>903</v>
+      </c>
+      <c r="E23" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C24" t="n">
+        <v/>
+      </c>
+      <c r="D24" t="n">
+        <v>925</v>
+      </c>
+      <c r="E24" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2504</v>
+      </c>
+      <c r="C25" t="n">
+        <v/>
+      </c>
+      <c r="D25" t="n">
+        <v>876</v>
+      </c>
+      <c r="E25" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C26" t="n">
+        <v/>
+      </c>
+      <c r="D26" t="n">
+        <v>814</v>
+      </c>
+      <c r="E26" t="n">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -38485,7 +38825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K544"/>
+  <dimension ref="A1:K548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58639,6 +58979,154 @@
       </c>
       <c r="K544" t="n">
         <v>58501</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>15589</v>
+      </c>
+      <c r="C545" t="n">
+        <v>2698</v>
+      </c>
+      <c r="D545" t="n">
+        <v>12891</v>
+      </c>
+      <c r="E545" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F545" t="n">
+        <v>280</v>
+      </c>
+      <c r="G545" t="n">
+        <v>4346</v>
+      </c>
+      <c r="H545" t="n">
+        <v>196</v>
+      </c>
+      <c r="I545" t="n">
+        <v>12</v>
+      </c>
+      <c r="J545" t="n">
+        <v>184</v>
+      </c>
+      <c r="K545" t="n">
+        <v>53593</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>15557</v>
+      </c>
+      <c r="C546" t="n">
+        <v>2656</v>
+      </c>
+      <c r="D546" t="n">
+        <v>12901</v>
+      </c>
+      <c r="E546" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F546" t="n">
+        <v>273</v>
+      </c>
+      <c r="G546" t="n">
+        <v>4353</v>
+      </c>
+      <c r="H546" t="n">
+        <v>196</v>
+      </c>
+      <c r="I546" t="n">
+        <v>14</v>
+      </c>
+      <c r="J546" t="n">
+        <v>182</v>
+      </c>
+      <c r="K546" t="n">
+        <v>48356</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>15409</v>
+      </c>
+      <c r="C547" t="n">
+        <v>2504</v>
+      </c>
+      <c r="D547" t="n">
+        <v>12905</v>
+      </c>
+      <c r="E547" t="n">
+        <v>4626</v>
+      </c>
+      <c r="F547" t="n">
+        <v>253</v>
+      </c>
+      <c r="G547" t="n">
+        <v>4373</v>
+      </c>
+      <c r="H547" t="n">
+        <v>196</v>
+      </c>
+      <c r="I547" t="n">
+        <v>16</v>
+      </c>
+      <c r="J547" t="n">
+        <v>180</v>
+      </c>
+      <c r="K547" t="n">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>15411</v>
+      </c>
+      <c r="C548" t="n">
+        <v>2424</v>
+      </c>
+      <c r="D548" t="n">
+        <v>12987</v>
+      </c>
+      <c r="E548" t="n">
+        <v>5026</v>
+      </c>
+      <c r="F548" t="n">
+        <v>249</v>
+      </c>
+      <c r="G548" t="n">
+        <v>4777</v>
+      </c>
+      <c r="H548" t="n">
+        <v>196</v>
+      </c>
+      <c r="I548" t="n">
+        <v>20</v>
+      </c>
+      <c r="J548" t="n">
+        <v>176</v>
+      </c>
+      <c r="K548" t="n">
+        <v>42438</v>
       </c>
     </row>
   </sheetData>
@@ -58652,7 +59140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68092,6 +68580,82 @@
       </c>
       <c r="E496" t="n">
         <v>1800768</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>43447</v>
+      </c>
+      <c r="C497" t="n">
+        <v>13843</v>
+      </c>
+      <c r="D497" t="n">
+        <v>34271893</v>
+      </c>
+      <c r="E497" t="n">
+        <v>1803783</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C498" t="n">
+        <v>14663</v>
+      </c>
+      <c r="D498" t="n">
+        <v>34331522</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1806922</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>56551</v>
+      </c>
+      <c r="C499" t="n">
+        <v>13675</v>
+      </c>
+      <c r="D499" t="n">
+        <v>34401748</v>
+      </c>
+      <c r="E499" t="n">
+        <v>1810618</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>58697</v>
+      </c>
+      <c r="C500" t="n">
+        <v>10325</v>
+      </c>
+      <c r="D500" t="n">
+        <v>34470770</v>
+      </c>
+      <c r="E500" t="n">
+        <v>1814251</v>
       </c>
     </row>
   </sheetData>
@@ -68105,7 +68669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74798,6 +75362,106 @@
       </c>
       <c r="G267" t="n">
         <v>162770</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>99759</v>
+      </c>
+      <c r="C268" t="n">
+        <v>56272</v>
+      </c>
+      <c r="D268" t="n">
+        <v>30819</v>
+      </c>
+      <c r="E268" t="n">
+        <v>16717149</v>
+      </c>
+      <c r="F268" t="n">
+        <v>12042445</v>
+      </c>
+      <c r="G268" t="n">
+        <v>175438</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>91869</v>
+      </c>
+      <c r="C269" t="n">
+        <v>45386</v>
+      </c>
+      <c r="D269" t="n">
+        <v>32638</v>
+      </c>
+      <c r="E269" t="n">
+        <v>16762535</v>
+      </c>
+      <c r="F269" t="n">
+        <v>12075083</v>
+      </c>
+      <c r="G269" t="n">
+        <v>189283</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>75837</v>
+      </c>
+      <c r="C270" t="n">
+        <v>37531</v>
+      </c>
+      <c r="D270" t="n">
+        <v>27440</v>
+      </c>
+      <c r="E270" t="n">
+        <v>16800066</v>
+      </c>
+      <c r="F270" t="n">
+        <v>12102523</v>
+      </c>
+      <c r="G270" t="n">
+        <v>200149</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>74246</v>
+      </c>
+      <c r="C271" t="n">
+        <v>31809</v>
+      </c>
+      <c r="D271" t="n">
+        <v>32429</v>
+      </c>
+      <c r="E271" t="n">
+        <v>16831875</v>
+      </c>
+      <c r="F271" t="n">
+        <v>12134952</v>
+      </c>
+      <c r="G271" t="n">
+        <v>210157</v>
       </c>
     </row>
   </sheetData>
